--- a/Examples/reposit/simple/AddinXl/AddinXl.xlsx
+++ b/Examples/reposit/simple/AddinXl/AddinXl.xlsx
@@ -384,8 +384,8 @@
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>_xll.slAdder("adder", 1)</f>
-        <v>adder#0000</v>
+        <f>_xll.slAdder(,"adder",TRUE,FALSE,1)</f>
+        <v>adder#0006</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -393,7 +393,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>_xll.slAdderAdd(B2,2)</f>
+        <f>_xll.slAdderAdd(,B2,2)</f>
         <v>3</v>
       </c>
     </row>

--- a/Examples/reposit/simple/AddinXl/AddinXl.xlsx
+++ b/Examples/reposit/simple/AddinXl/AddinXl.xlsx
@@ -374,27 +374,27 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="str">
-        <f>_xll.slFunc()</f>
-        <v>f()</v>
+      <c r="B1" t="e">
+        <f ca="1">_xll.slFunc()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
-        <f>_xll.slAdder(,"adder",TRUE,FALSE,1)</f>
-        <v>adder#0006</v>
+      <c r="B2" t="e">
+        <f ca="1">_xll.slAdder(,"adder",TRUE,FALSE,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <f>_xll.slAdderAdd(,B2,2)</f>
-        <v>3</v>
+      <c r="B3" t="e">
+        <f ca="1">_xll.slAdderAdd(,B2,2)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
